--- a/assets/path_upload/upload_jadwal_patroli_228572.xlsx
+++ b/assets/path_upload/upload_jadwal_patroli_228572.xlsx
@@ -78,7 +78,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>September</t>
+    <t>Agustus</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/path_upload/upload_jadwal_patroli_228572.xlsx
+++ b/assets/path_upload/upload_jadwal_patroli_228572.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imamsyz/Project/ASTRA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963B071-F220-CE4D-A121-3675A604967C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jadwal_Patroli" sheetId="4" r:id="rId1"/>
@@ -15,23 +21,17 @@
     <definedName name="TableTitle">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
   <si>
     <t>LIBUR</t>
   </si>
@@ -81,13 +81,16 @@
     <t>EKO AJI PURWANTO</t>
   </si>
   <si>
-    <t>September</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Oktober</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,27 +509,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="32" width="12.5703125" customWidth="1"/>
+    <col min="7" max="32" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -562,12 +565,12 @@
       <c r="AG1" s="11"/>
       <c r="AH1" s="11"/>
     </row>
-    <row r="2" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -602,9 +605,9 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
     </row>
-    <row r="3" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>2022</v>
@@ -642,12 +645,12 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -682,12 +685,12 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -722,21 +725,21 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>2</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -768,7 +771,7 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -864,271 +867,271 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>226135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="N8" s="7">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>2</v>
+      </c>
+      <c r="S8" s="7">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7">
+        <v>2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>2</v>
-      </c>
-      <c r="R8" s="7">
-        <v>3</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
-      <c r="U8" s="8">
-        <v>2</v>
-      </c>
-      <c r="V8" s="7">
-        <v>3</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>2</v>
-      </c>
       <c r="AD8" s="7">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>226142</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>2</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>2</v>
+      </c>
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>2</v>
-      </c>
-      <c r="P9" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>1</v>
-      </c>
-      <c r="S9" s="7">
-        <v>2</v>
-      </c>
-      <c r="T9" s="7">
-        <v>3</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
-      <c r="W9" s="7">
-        <v>2</v>
-      </c>
-      <c r="X9" s="7">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>3</v>
-      </c>
-      <c r="AG9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>226145</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="7">
         <v>1</v>
       </c>
-      <c r="P10" s="7">
-        <v>2</v>
+      <c r="P10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="Q10" s="7">
         <v>3</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" s="7">
         <v>2</v>
@@ -1137,19 +1140,19 @@
         <v>3</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" s="7">
         <v>1</v>
       </c>
-      <c r="X10" s="7">
-        <v>2</v>
+      <c r="X10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="Y10" s="7">
         <v>3</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="7">
         <v>1</v>
@@ -1161,33 +1164,33 @@
         <v>3</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="7">
         <v>2</v>
       </c>
       <c r="AG10" s="7">
-        <v>3</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>226146</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1196,61 +1199,61 @@
         <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="J11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="7">
-        <v>3</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
       </c>
       <c r="O11" s="7">
         <v>3</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>1</v>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="R11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" s="7">
-        <v>3</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
-      <c r="V11" s="8">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="T11" s="7">
+        <v>3</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="7">
+        <v>3</v>
       </c>
       <c r="W11" s="7">
         <v>3</v>
       </c>
-      <c r="X11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>1</v>
+      <c r="X11" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="Z11" s="8">
         <v>2</v>
@@ -1258,26 +1261,26 @@
       <c r="AA11" s="7">
         <v>3</v>
       </c>
-      <c r="AB11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>1</v>
+      <c r="AB11" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="AD11" s="8">
         <v>2</v>
       </c>
       <c r="AE11" s="7">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>3</v>
       </c>
       <c r="AG11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1292,5 +1295,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M8 P10 W8 X10 AC8 O8 AC9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>